--- a/medicine/Mort/Cimetière_de_l'Ouest_(Munich)/Cimetière_de_l'Ouest_(Munich).xlsx
+++ b/medicine/Mort/Cimetière_de_l'Ouest_(Munich)/Cimetière_de_l'Ouest_(Munich).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Ouest_(Munich)</t>
+          <t>Cimetière_de_l'Ouest_(Munich)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de l'Ouest (Westfriedhof) est un des cimetières  de la ville de Munich en Allemagne. Il se trouve au sud de la ville dans le district de Moosach et son entrée principale est au no 28 de la Baldurstraße[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de l'Ouest (Westfriedhof) est un des cimetières  de la ville de Munich en Allemagne. Il se trouve au sud de la ville dans le district de Moosach et son entrée principale est au no 28 de la Baldurstraße. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Ouest_(Munich)</t>
+          <t>Cimetière_de_l'Ouest_(Munich)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière a été ouvert en 1898, alors que Moosach ne faisait pas partie de Munich. Ses bâtiments sont l'œuvre de l'architecte Hans Grässel,  et ont été terminés en 1902. Le cimetière de l'Ouest abrite plus de quarante mille sépultures et a été agrandi en 1950-1951[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière a été ouvert en 1898, alors que Moosach ne faisait pas partie de Munich. Ses bâtiments sont l'œuvre de l'architecte Hans Grässel,  et ont été terminés en 1902. Le cimetière de l'Ouest abrite plus de quarante mille sépultures et a été agrandi en 1950-1951.
 Les monuments qui se trouvent le long de l'allée principale sont particulièrement imposants et certains d'entre eux sont l'œuvre du sculpteur munichois Heinrich Waderé.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Ouest_(Munich)</t>
+          <t>Cimetière_de_l'Ouest_(Munich)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aexandra (1942-1969), née Doris Treitz, chanteuse de schlager
-Hans Baur (1897-1993), ancien pilote d'Hitler[3]
+Hans Baur (1897-1993), ancien pilote d'Hitler
 Hugo Hartung (1902-1972), écrivain
 Ursula Herking (1912-1974), actrice (tombe transférée à Dessau)
 Toni Hiebeler (1930-1984), alpiniste
